--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -100,13 +100,31 @@
     <t>Setting</t>
   </si>
   <si>
-    <t>common\Common@Setting.xlsx</t>
-  </si>
-  <si>
-    <t>common.GameSetting</t>
+    <t>Common\Common@Setting.xlsx</t>
+  </si>
+  <si>
+    <t>GameSettingConfig</t>
   </si>
   <si>
     <t>设置</t>
+  </si>
+  <si>
+    <t>ImageTextMix</t>
+  </si>
+  <si>
+    <t>Common\Mix@ImageTextMix.xlsx</t>
+  </si>
+  <si>
+    <t>ImageTextMixConfig</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>RTS\unit@Unit.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig</t>
   </si>
 </sst>
 </file>
@@ -1051,17 +1069,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
     <col min="8" max="10" width="18" customWidth="1"/>
@@ -1158,7 +1177,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1166,9 +1185,6 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
@@ -1180,6 +1196,48 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -97,7 +97,7 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>Setting</t>
+    <t>GameSettingTable</t>
   </si>
   <si>
     <t>Common\Common@Setting.xlsx</t>
@@ -109,22 +109,25 @@
     <t>设置</t>
   </si>
   <si>
-    <t>ImageTextMix</t>
-  </si>
-  <si>
-    <t>Common\Mix@ImageTextMix.xlsx</t>
+    <t>SLGSettingTable</t>
+  </si>
+  <si>
+    <t>Common\RTS@Setting.xlsx</t>
+  </si>
+  <si>
+    <t>SLGSettingConfig</t>
+  </si>
+  <si>
+    <t>ImageTextMixTable</t>
+  </si>
+  <si>
+    <t>Common\ImageTextMix.xlsx</t>
   </si>
   <si>
     <t>ImageTextMixConfig</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>RTS\unit@Unit.xlsx</t>
-  </si>
-  <si>
-    <t>UnitConfig</t>
+    <t>图文混合</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1218,22 +1221,28 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="b">
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -97,7 +97,7 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>GameSettingTable</t>
+    <t>TbGameSetting</t>
   </si>
   <si>
     <t>Common\Common@Setting.xlsx</t>
@@ -109,7 +109,7 @@
     <t>设置</t>
   </si>
   <si>
-    <t>SLGSettingTable</t>
+    <t>TbSLGSetting</t>
   </si>
   <si>
     <t>Common\RTS@Setting.xlsx</t>
@@ -118,7 +118,7 @@
     <t>SLGSettingConfig</t>
   </si>
   <si>
-    <t>ImageTextMixTable</t>
+    <t>TbImageTextMix</t>
   </si>
   <si>
     <t>Common\ImageTextMix.xlsx</t>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>图文混合</t>
+  </si>
+  <si>
+    <t>TbUnit</t>
+  </si>
+  <si>
+    <t>RTS\Unit.xlsx</t>
+  </si>
+  <si>
+    <t>UnitConfig</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="40.25" customWidth="1"/>
@@ -1248,6 +1260,23 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>单位</t>
+  </si>
+  <si>
+    <t>TbDeployFormation</t>
+  </si>
+  <si>
+    <t>RTS\DeployFormation.xlsx</t>
+  </si>
+  <si>
+    <t>DeployFormationConfig</t>
+  </si>
+  <si>
+    <t>阵型</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1277,6 +1289,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,30 @@
   </si>
   <si>
     <t>图文混合</t>
+  </si>
+  <si>
+    <t>TbTech</t>
+  </si>
+  <si>
+    <t>Common\Tech@Tech.xlsx</t>
+  </si>
+  <si>
+    <t>TechConfig</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>TbTechCategory</t>
+  </si>
+  <si>
+    <t>Common\Category1@Tech.xlsx</t>
+  </si>
+  <si>
+    <t>TechCategoryConfig</t>
+  </si>
+  <si>
+    <t>科技种类</t>
   </si>
   <si>
     <t>TbUnit</t>
@@ -1096,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1262,48 +1286,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+    <row r="8" customFormat="1" spans="2:7">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:7">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="b">
+    <row r="10" spans="3:11">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:7">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -145,7 +145,7 @@
     <t>TbTechCategory</t>
   </si>
   <si>
-    <t>Common\Category1@Tech.xlsx</t>
+    <t>Common\Category@Tech.xlsx</t>
   </si>
   <si>
     <t>TechCategoryConfig</t>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1296,7 +1296,6 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8"/>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>

--- a/Excel/__tables__.xlsx
+++ b/Excel/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,42 @@
   </si>
   <si>
     <t>科技种类</t>
+  </si>
+  <si>
+    <t>TbCityBuilding</t>
+  </si>
+  <si>
+    <t>Common\Building@CityBuilding.xlsx</t>
+  </si>
+  <si>
+    <t>CityBuildingConfig</t>
+  </si>
+  <si>
+    <t>城镇建筑</t>
+  </si>
+  <si>
+    <t>TbCityBuildingLevel</t>
+  </si>
+  <si>
+    <t>Common\Level@CityBuilding.xlsx</t>
+  </si>
+  <si>
+    <t>CityBuildingLevelConfig</t>
+  </si>
+  <si>
+    <t>建筑层级</t>
+  </si>
+  <si>
+    <t>TbCityBuildingSlot</t>
+  </si>
+  <si>
+    <t>Common\Slot@CityBuilding.xlsx</t>
+  </si>
+  <si>
+    <t>BuildingSlotConfig</t>
+  </si>
+  <si>
+    <t>建筑槽位</t>
   </si>
   <si>
     <t>TbUnit</t>
@@ -1120,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1320,28 +1356,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="b">
         <v>1</v>
@@ -1349,18 +1392,62 @@
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:7">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
